--- a/data/pca/factorExposure/factorExposure_2017-01-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-01-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.009751957776840724</v>
+        <v>0.01436000611175716</v>
       </c>
       <c r="C2">
-        <v>0.02953503098671508</v>
+        <v>-0.03911478585449663</v>
       </c>
       <c r="D2">
-        <v>-0.03035885972651219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03203763663925546</v>
+      </c>
+      <c r="E2">
+        <v>0.0535867222286934</v>
+      </c>
+      <c r="F2">
+        <v>0.01305782549336126</v>
+      </c>
+      <c r="G2">
+        <v>0.105134239954117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05479187441761246</v>
+        <v>0.03675072432112917</v>
       </c>
       <c r="C3">
-        <v>0.1135098805918481</v>
+        <v>-0.09461135540076186</v>
       </c>
       <c r="D3">
-        <v>-0.0242634164226379</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01902048947591957</v>
+      </c>
+      <c r="E3">
+        <v>0.1031591355767935</v>
+      </c>
+      <c r="F3">
+        <v>0.01893338515198825</v>
+      </c>
+      <c r="G3">
+        <v>0.1176818401135733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05708690088695219</v>
+        <v>0.05543223557409481</v>
       </c>
       <c r="C4">
-        <v>0.06355599486917902</v>
+        <v>-0.0603673514638921</v>
       </c>
       <c r="D4">
-        <v>-0.02704319442366807</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02694225759415822</v>
+      </c>
+      <c r="E4">
+        <v>0.05334089440664492</v>
+      </c>
+      <c r="F4">
+        <v>0.001583688772555976</v>
+      </c>
+      <c r="G4">
+        <v>0.09608036931591357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01601734762821274</v>
+        <v>0.03421806083663039</v>
       </c>
       <c r="C6">
-        <v>0.05385771412624277</v>
+        <v>-0.0441931643767606</v>
       </c>
       <c r="D6">
-        <v>-0.02417398696308152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01978316414657736</v>
+      </c>
+      <c r="E6">
+        <v>0.0588804507105482</v>
+      </c>
+      <c r="F6">
+        <v>0.007512278400458753</v>
+      </c>
+      <c r="G6">
+        <v>0.08629006576248303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0114913672220643</v>
+        <v>0.02041026562675102</v>
       </c>
       <c r="C7">
-        <v>0.0405332819154542</v>
+        <v>-0.03599647173979369</v>
       </c>
       <c r="D7">
-        <v>-0.01915942997342835</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01548723565660059</v>
+      </c>
+      <c r="E7">
+        <v>0.02574435614689374</v>
+      </c>
+      <c r="F7">
+        <v>-0.0006075522108747925</v>
+      </c>
+      <c r="G7">
+        <v>0.1262204385223285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.004159781197688365</v>
+        <v>0.004419502940645111</v>
       </c>
       <c r="C8">
-        <v>0.008493574141893211</v>
+        <v>-0.02100552398116198</v>
       </c>
       <c r="D8">
-        <v>-0.004319992321143116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.004851377826244155</v>
+      </c>
+      <c r="E8">
+        <v>0.03765417686061139</v>
+      </c>
+      <c r="F8">
+        <v>0.004460068172844583</v>
+      </c>
+      <c r="G8">
+        <v>0.07180997281187616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02546800505453542</v>
+        <v>0.03412589937274266</v>
       </c>
       <c r="C9">
-        <v>0.04151256706914313</v>
+        <v>-0.04494990692305424</v>
       </c>
       <c r="D9">
-        <v>-0.01874553449161817</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01776409446858867</v>
+      </c>
+      <c r="E9">
+        <v>0.03743324861456012</v>
+      </c>
+      <c r="F9">
+        <v>0.001175438006428345</v>
+      </c>
+      <c r="G9">
+        <v>0.1017675622061313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1034563996036563</v>
+        <v>0.09610107539647486</v>
       </c>
       <c r="C10">
-        <v>-0.1726708435072977</v>
+        <v>0.1910082174032329</v>
       </c>
       <c r="D10">
-        <v>0.05910666642628025</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01518324051485615</v>
+      </c>
+      <c r="E10">
+        <v>0.01728490711559647</v>
+      </c>
+      <c r="F10">
+        <v>0.02712069211253785</v>
+      </c>
+      <c r="G10">
+        <v>0.05309321466725743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.03450115798415649</v>
+        <v>0.03578347450650549</v>
       </c>
       <c r="C11">
-        <v>0.05870035287036034</v>
+        <v>-0.0516992615950983</v>
       </c>
       <c r="D11">
-        <v>-0.007251264354287627</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.003010481104795529</v>
+      </c>
+      <c r="E11">
+        <v>0.02604224790986666</v>
+      </c>
+      <c r="F11">
+        <v>-0.01460950188500523</v>
+      </c>
+      <c r="G11">
+        <v>0.07667383734387341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03251742893511003</v>
+        <v>0.03734761209456427</v>
       </c>
       <c r="C12">
-        <v>0.0493402210912081</v>
+        <v>-0.04571237463407113</v>
       </c>
       <c r="D12">
-        <v>-0.01083772973167824</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.007208409640370583</v>
+      </c>
+      <c r="E12">
+        <v>0.01753878476194543</v>
+      </c>
+      <c r="F12">
+        <v>-0.004667006749275136</v>
+      </c>
+      <c r="G12">
+        <v>0.07584742118925047</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.006410628533867039</v>
+        <v>0.01112419203542095</v>
       </c>
       <c r="C13">
-        <v>0.02722749287897521</v>
+        <v>-0.03558273699185474</v>
       </c>
       <c r="D13">
-        <v>-0.02786286729237842</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03012259888119934</v>
+      </c>
+      <c r="E13">
+        <v>0.06410745506786009</v>
+      </c>
+      <c r="F13">
+        <v>0.01448412589068678</v>
+      </c>
+      <c r="G13">
+        <v>0.1352492425415569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.004867896352818277</v>
+        <v>0.008701433856069706</v>
       </c>
       <c r="C14">
-        <v>0.02752262887620974</v>
+        <v>-0.02518257300060052</v>
       </c>
       <c r="D14">
-        <v>-0.01279892972511761</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01180631318869928</v>
+      </c>
+      <c r="E14">
+        <v>0.02190609656528514</v>
+      </c>
+      <c r="F14">
+        <v>0.00718320386111366</v>
+      </c>
+      <c r="G14">
+        <v>0.1164103729880974</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.02943614517641277</v>
+        <v>0.03410785901883432</v>
       </c>
       <c r="C16">
-        <v>0.04250181285847968</v>
+        <v>-0.04461776067091269</v>
       </c>
       <c r="D16">
-        <v>-0.004754201625867037</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002698253501203837</v>
+      </c>
+      <c r="E16">
+        <v>0.02313221545407042</v>
+      </c>
+      <c r="F16">
+        <v>0.00433221240026873</v>
+      </c>
+      <c r="G16">
+        <v>0.08344627839965849</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02250435528507098</v>
+        <v>0.01820541304454143</v>
       </c>
       <c r="C19">
-        <v>0.05449676890663172</v>
+        <v>-0.04619603329662877</v>
       </c>
       <c r="D19">
-        <v>-0.02155735511171683</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02309083413002298</v>
+      </c>
+      <c r="E19">
+        <v>0.1006762520064368</v>
+      </c>
+      <c r="F19">
+        <v>0.01060439628589359</v>
+      </c>
+      <c r="G19">
+        <v>0.1362091119342936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.007183956565668821</v>
+        <v>0.01533341056004871</v>
       </c>
       <c r="C20">
-        <v>0.03700784329091293</v>
+        <v>-0.03687033863726965</v>
       </c>
       <c r="D20">
-        <v>-0.01808219754583442</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01609078566882444</v>
+      </c>
+      <c r="E20">
+        <v>0.04782613014864751</v>
+      </c>
+      <c r="F20">
+        <v>0.02675735931908794</v>
+      </c>
+      <c r="G20">
+        <v>0.1088568066354337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.002057515572658486</v>
+        <v>0.006780935028578575</v>
       </c>
       <c r="C21">
-        <v>0.0337193193659448</v>
+        <v>-0.0320325263268044</v>
       </c>
       <c r="D21">
-        <v>-0.02114056253283779</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02233089682717204</v>
+      </c>
+      <c r="E21">
+        <v>0.06675716152156404</v>
+      </c>
+      <c r="F21">
+        <v>0.01617039492202216</v>
+      </c>
+      <c r="G21">
+        <v>0.1518680329664956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0008422240590110528</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.007905256344876963</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002909135575136231</v>
+      </c>
+      <c r="E22">
+        <v>0.02083476941014862</v>
+      </c>
+      <c r="F22">
+        <v>-0.002781047562311995</v>
+      </c>
+      <c r="G22">
+        <v>0.008400409069339115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0008661689552677856</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.007815280128017963</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002894711646066605</v>
+      </c>
+      <c r="E23">
+        <v>0.02075274553549705</v>
+      </c>
+      <c r="F23">
+        <v>-0.002529934265758608</v>
+      </c>
+      <c r="G23">
+        <v>0.008263349455666697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.02241575603302286</v>
+        <v>0.03039233505718724</v>
       </c>
       <c r="C24">
-        <v>0.04761275601764461</v>
+        <v>-0.04916253438825736</v>
       </c>
       <c r="D24">
-        <v>-0.01183476313467072</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007832633615623944</v>
+      </c>
+      <c r="E24">
+        <v>0.02107202104601229</v>
+      </c>
+      <c r="F24">
+        <v>-0.004543094327009149</v>
+      </c>
+      <c r="G24">
+        <v>0.08457669610947002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04062536344317311</v>
+        <v>0.04313218183089186</v>
       </c>
       <c r="C25">
-        <v>0.05824327601633772</v>
+        <v>-0.05585894978346744</v>
       </c>
       <c r="D25">
-        <v>-0.01628157908071915</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01195149818067047</v>
+      </c>
+      <c r="E25">
+        <v>0.01472672680616152</v>
+      </c>
+      <c r="F25">
+        <v>-0.005366915696141532</v>
+      </c>
+      <c r="G25">
+        <v>0.09138975960956128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.004160393783486802</v>
+        <v>0.01469666407309428</v>
       </c>
       <c r="C26">
-        <v>0.004118507012341482</v>
+        <v>-0.009788733716530572</v>
       </c>
       <c r="D26">
-        <v>-0.023136054444644</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02464833451330441</v>
+      </c>
+      <c r="E26">
+        <v>0.01601816532747599</v>
+      </c>
+      <c r="F26">
+        <v>0.005774668261856592</v>
+      </c>
+      <c r="G26">
+        <v>0.08550242849791179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1254568774985009</v>
+        <v>0.1260694378779253</v>
       </c>
       <c r="C28">
-        <v>-0.2047944838572168</v>
+        <v>0.2443506513486927</v>
       </c>
       <c r="D28">
-        <v>0.05551221172997611</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006541326711242146</v>
+      </c>
+      <c r="E28">
+        <v>-9.958303218439175e-05</v>
+      </c>
+      <c r="F28">
+        <v>0.02649766028768726</v>
+      </c>
+      <c r="G28">
+        <v>0.0522859445081851</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01042426877687041</v>
+        <v>0.00762116994636131</v>
       </c>
       <c r="C29">
-        <v>0.02239782524553038</v>
+        <v>-0.02159690356023776</v>
       </c>
       <c r="D29">
-        <v>-0.01038318414768947</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01055759195848319</v>
+      </c>
+      <c r="E29">
+        <v>0.01351344860772889</v>
+      </c>
+      <c r="F29">
+        <v>0.01176192650787173</v>
+      </c>
+      <c r="G29">
+        <v>0.1055814949841607</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02961330644110147</v>
+        <v>0.03856016846072817</v>
       </c>
       <c r="C30">
-        <v>0.0687117982475198</v>
+        <v>-0.06170185595326009</v>
       </c>
       <c r="D30">
-        <v>-0.03459573980878291</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.03205028722194567</v>
+      </c>
+      <c r="E30">
+        <v>0.07898667521926711</v>
+      </c>
+      <c r="F30">
+        <v>-0.01600154529594208</v>
+      </c>
+      <c r="G30">
+        <v>0.1220307049880141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.03755867436261097</v>
+        <v>0.05415267708293554</v>
       </c>
       <c r="C31">
-        <v>0.02661241628439039</v>
+        <v>-0.03808398274597382</v>
       </c>
       <c r="D31">
-        <v>-0.004570765518489927</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.00447519564664214</v>
+      </c>
+      <c r="E31">
+        <v>0.003166378427488924</v>
+      </c>
+      <c r="F31">
+        <v>0.03533954068659347</v>
+      </c>
+      <c r="G31">
+        <v>0.09891492094669373</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.004540174626995745</v>
+        <v>0.002061210496964251</v>
       </c>
       <c r="C32">
-        <v>0.03463431447300803</v>
+        <v>-0.01904898348715904</v>
       </c>
       <c r="D32">
-        <v>0.0005476525232206721</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0008139577906047917</v>
+      </c>
+      <c r="E32">
+        <v>0.05271432710767265</v>
+      </c>
+      <c r="F32">
+        <v>-0.02415873760641655</v>
+      </c>
+      <c r="G32">
+        <v>0.07311169188049137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02538773336196616</v>
+        <v>0.02702043459515914</v>
       </c>
       <c r="C33">
-        <v>0.05323789562803499</v>
+        <v>-0.04682745040532597</v>
       </c>
       <c r="D33">
-        <v>-0.01866373074104098</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01858907124857099</v>
+      </c>
+      <c r="E33">
+        <v>0.068131167269166</v>
+      </c>
+      <c r="F33">
+        <v>-0.003557665752126483</v>
+      </c>
+      <c r="G33">
+        <v>0.1586105507922455</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04744255793943384</v>
+        <v>0.04079093575721614</v>
       </c>
       <c r="C34">
-        <v>0.06098332161445322</v>
+        <v>-0.05851517821423238</v>
       </c>
       <c r="D34">
-        <v>0.0009217055867515582</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.003815359275156544</v>
+      </c>
+      <c r="E34">
+        <v>0.01983029155599115</v>
+      </c>
+      <c r="F34">
+        <v>-0.01931940915790996</v>
+      </c>
+      <c r="G34">
+        <v>0.07923614692691186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.00901316810995143</v>
+        <v>0.01586214473664079</v>
       </c>
       <c r="C36">
-        <v>0.002485723735668409</v>
+        <v>-0.005825728201303165</v>
       </c>
       <c r="D36">
-        <v>-0.01049787562303361</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01383701967539311</v>
+      </c>
+      <c r="E36">
+        <v>0.0202820062125915</v>
+      </c>
+      <c r="F36">
+        <v>0.008226532314506197</v>
+      </c>
+      <c r="G36">
+        <v>0.09664544696912371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02871456421777015</v>
+        <v>0.03054132889240973</v>
       </c>
       <c r="C38">
-        <v>0.01971350114242887</v>
+        <v>-0.02374318056096749</v>
       </c>
       <c r="D38">
-        <v>0.008634974869127515</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.00621488410566224</v>
+      </c>
+      <c r="E38">
+        <v>0.02042988795314313</v>
+      </c>
+      <c r="F38">
+        <v>0.01239516125756295</v>
+      </c>
+      <c r="G38">
+        <v>0.09203071324694428</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.0253951330311261</v>
+        <v>0.03638826361957154</v>
       </c>
       <c r="C39">
-        <v>0.08425370369426638</v>
+        <v>-0.07580622457571927</v>
       </c>
       <c r="D39">
-        <v>-0.02264121672085325</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01343328392344823</v>
+      </c>
+      <c r="E39">
+        <v>0.04017061460435265</v>
+      </c>
+      <c r="F39">
+        <v>-0.01370230400464121</v>
+      </c>
+      <c r="G39">
+        <v>0.09289556911605235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01350083188377275</v>
+        <v>0.01654989042857807</v>
       </c>
       <c r="C40">
-        <v>0.02240421333711991</v>
+        <v>-0.03365000820057176</v>
       </c>
       <c r="D40">
-        <v>-0.01384274476441124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01567822555284827</v>
+      </c>
+      <c r="E40">
+        <v>0.03565364910960371</v>
+      </c>
+      <c r="F40">
+        <v>0.02660288925167067</v>
+      </c>
+      <c r="G40">
+        <v>0.1210981925197809</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01111652382596386</v>
+        <v>0.01891237205892208</v>
       </c>
       <c r="C41">
-        <v>-0.003828853711762769</v>
+        <v>0.00108203164455559</v>
       </c>
       <c r="D41">
-        <v>-0.00127756075120073</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.005856099827326642</v>
+      </c>
+      <c r="E41">
+        <v>0.01748948056206561</v>
+      </c>
+      <c r="F41">
+        <v>0.01394640447716993</v>
+      </c>
+      <c r="G41">
+        <v>0.09102412538462275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.01035384240865528</v>
+        <v>0.005628459456666143</v>
       </c>
       <c r="C42">
-        <v>0.03626673000735983</v>
+        <v>-0.02790472451647926</v>
       </c>
       <c r="D42">
-        <v>-0.09664876638112414</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08437381435348694</v>
+      </c>
+      <c r="E42">
+        <v>-0.005952706567581831</v>
+      </c>
+      <c r="F42">
+        <v>0.03039305138429402</v>
+      </c>
+      <c r="G42">
+        <v>-0.02244507915296944</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.02897249594012067</v>
+        <v>0.0333623713483889</v>
       </c>
       <c r="C43">
-        <v>0.01074163129105084</v>
+        <v>-0.01261769778939529</v>
       </c>
       <c r="D43">
-        <v>-0.001842125613835338</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.007446663265041172</v>
+      </c>
+      <c r="E43">
+        <v>0.03572988678761479</v>
+      </c>
+      <c r="F43">
+        <v>0.01017791689795392</v>
+      </c>
+      <c r="G43">
+        <v>0.1186796042888075</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01377402023188399</v>
+        <v>0.01408174836290209</v>
       </c>
       <c r="C44">
-        <v>0.05596432696664978</v>
+        <v>-0.05155987191985615</v>
       </c>
       <c r="D44">
-        <v>-0.01281005276771826</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.00877735943153502</v>
+      </c>
+      <c r="E44">
+        <v>0.03936429173564591</v>
+      </c>
+      <c r="F44">
+        <v>0.01779345909767241</v>
+      </c>
+      <c r="G44">
+        <v>0.1209202274592689</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.002741389285296475</v>
+        <v>0.0101746870765102</v>
       </c>
       <c r="C46">
-        <v>0.008156498708832324</v>
+        <v>-0.01513568406827757</v>
       </c>
       <c r="D46">
-        <v>-0.01301132102367128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01340021641209643</v>
+      </c>
+      <c r="E46">
+        <v>0.005702122803429627</v>
+      </c>
+      <c r="F46">
+        <v>0.01651238282755101</v>
+      </c>
+      <c r="G46">
+        <v>0.1131816231544128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.06288046948632242</v>
+        <v>0.08261193115363845</v>
       </c>
       <c r="C47">
-        <v>0.06936626995717747</v>
+        <v>-0.0705430536232185</v>
       </c>
       <c r="D47">
-        <v>-0.002516626156237851</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004734432656798519</v>
+      </c>
+      <c r="E47">
+        <v>-0.005438246309002195</v>
+      </c>
+      <c r="F47">
+        <v>0.04381478491261338</v>
+      </c>
+      <c r="G47">
+        <v>0.08973387020068042</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01091851862820102</v>
+        <v>0.01808188190063663</v>
       </c>
       <c r="C48">
-        <v>0.01083893386904263</v>
+        <v>-0.01035573291910642</v>
       </c>
       <c r="D48">
-        <v>-0.00173876459623481</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.003512680638272024</v>
+      </c>
+      <c r="E48">
+        <v>0.01532677777003083</v>
+      </c>
+      <c r="F48">
+        <v>0.02035800268853001</v>
+      </c>
+      <c r="G48">
+        <v>0.1087599578449108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.07129400749098865</v>
+        <v>0.07718597852181569</v>
       </c>
       <c r="C50">
-        <v>0.06964136529184312</v>
+        <v>-0.06802407454801487</v>
       </c>
       <c r="D50">
-        <v>-0.002311334675128905</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001262093168272812</v>
+      </c>
+      <c r="E50">
+        <v>0.001422052452925568</v>
+      </c>
+      <c r="F50">
+        <v>0.04329793274930704</v>
+      </c>
+      <c r="G50">
+        <v>0.1034066399960169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01223399833680302</v>
+        <v>0.0117512951007067</v>
       </c>
       <c r="C51">
-        <v>0.04000298202609401</v>
+        <v>-0.03261677809300346</v>
       </c>
       <c r="D51">
-        <v>-0.01372331789957632</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01236258895421981</v>
+      </c>
+      <c r="E51">
+        <v>0.04106101062417312</v>
+      </c>
+      <c r="F51">
+        <v>-0.009911824079874681</v>
+      </c>
+      <c r="G51">
+        <v>0.112193369591394</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08964298207024173</v>
+        <v>0.0862221658743678</v>
       </c>
       <c r="C53">
-        <v>0.08615223266244748</v>
+        <v>-0.08337681939550672</v>
       </c>
       <c r="D53">
-        <v>-0.002914677620859229</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003907598497796166</v>
+      </c>
+      <c r="E53">
+        <v>-0.02650656384620606</v>
+      </c>
+      <c r="F53">
+        <v>0.04811736288580643</v>
+      </c>
+      <c r="G53">
+        <v>0.09389753610804948</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02606813229398864</v>
+        <v>0.03137121772093969</v>
       </c>
       <c r="C54">
-        <v>0.005547811743648265</v>
+        <v>-0.01542504832114271</v>
       </c>
       <c r="D54">
-        <v>0.005152392488179445</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0003307468269743653</v>
+      </c>
+      <c r="E54">
+        <v>0.02742015409543211</v>
+      </c>
+      <c r="F54">
+        <v>0.01210587320079809</v>
+      </c>
+      <c r="G54">
+        <v>0.1134295584480154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.06707508525499818</v>
+        <v>0.08011441918403674</v>
       </c>
       <c r="C55">
-        <v>0.07165537435383161</v>
+        <v>-0.06702839205950901</v>
       </c>
       <c r="D55">
-        <v>-0.002492784354954506</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.00589448030737624</v>
+      </c>
+      <c r="E55">
+        <v>-0.02928511489930207</v>
+      </c>
+      <c r="F55">
+        <v>0.04910565308596147</v>
+      </c>
+      <c r="G55">
+        <v>0.07123402880137163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1375291356643335</v>
+        <v>0.1422977522782778</v>
       </c>
       <c r="C56">
-        <v>0.1101312634811901</v>
+        <v>-0.103495301463128</v>
       </c>
       <c r="D56">
-        <v>0.005302438774567922</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01307147556006448</v>
+      </c>
+      <c r="E56">
+        <v>-0.03363885645075337</v>
+      </c>
+      <c r="F56">
+        <v>0.05529689542120291</v>
+      </c>
+      <c r="G56">
+        <v>0.05454314052562657</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.01024201364316389</v>
+        <v>0.003897254049818327</v>
       </c>
       <c r="C57">
-        <v>0.004863741544923553</v>
+        <v>-0.00351190079878057</v>
       </c>
       <c r="D57">
-        <v>-0.02202495987911495</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02305847619143205</v>
+      </c>
+      <c r="E57">
+        <v>0.02551584991927121</v>
+      </c>
+      <c r="F57">
+        <v>0.0001731180435046892</v>
+      </c>
+      <c r="G57">
+        <v>0.01226175965842761</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.03206153278238782</v>
+        <v>0.03941972384757046</v>
       </c>
       <c r="C58">
-        <v>0.07047760791288427</v>
+        <v>-0.03113517806965134</v>
       </c>
       <c r="D58">
-        <v>-0.01145674523677366</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03697429709631097</v>
+      </c>
+      <c r="E58">
+        <v>0.7539537162756647</v>
+      </c>
+      <c r="F58">
+        <v>0.5443992279985085</v>
+      </c>
+      <c r="G58">
+        <v>-0.3015436469980042</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1723528447987567</v>
+        <v>0.1533284100453451</v>
       </c>
       <c r="C59">
-        <v>-0.1968697796415318</v>
+        <v>0.2106783385191018</v>
       </c>
       <c r="D59">
-        <v>0.06670804113385875</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01025377330151908</v>
+      </c>
+      <c r="E59">
+        <v>0.02338667343720759</v>
+      </c>
+      <c r="F59">
+        <v>0.007261637040644308</v>
+      </c>
+      <c r="G59">
+        <v>0.03681386227090571</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2969899252523669</v>
+        <v>0.2847678081501077</v>
       </c>
       <c r="C60">
-        <v>0.1305114686974741</v>
+        <v>-0.1032792905680698</v>
       </c>
       <c r="D60">
-        <v>-0.002111083598792407</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01723889527043943</v>
+      </c>
+      <c r="E60">
+        <v>0.1094631946241435</v>
+      </c>
+      <c r="F60">
+        <v>-0.3115319999794897</v>
+      </c>
+      <c r="G60">
+        <v>-0.1668430186036391</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.0261784438203031</v>
+        <v>0.03903931913869853</v>
       </c>
       <c r="C61">
-        <v>0.06555657005342491</v>
+        <v>-0.06237457484403733</v>
       </c>
       <c r="D61">
-        <v>-0.01275171984429629</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.007268534874694828</v>
+      </c>
+      <c r="E61">
+        <v>0.03757304225886274</v>
+      </c>
+      <c r="F61">
+        <v>-0.007506418189322361</v>
+      </c>
+      <c r="G61">
+        <v>0.09093383036986265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01232397871762189</v>
+        <v>0.0146393610995734</v>
       </c>
       <c r="C63">
-        <v>0.02900213009642442</v>
+        <v>-0.027201807314171</v>
       </c>
       <c r="D63">
-        <v>-0.01152982052620363</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.00921229682753375</v>
+      </c>
+      <c r="E63">
+        <v>0.01145330368379234</v>
+      </c>
+      <c r="F63">
+        <v>0.01570523582281273</v>
+      </c>
+      <c r="G63">
+        <v>0.09340216556473716</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04352264815228742</v>
+        <v>0.05062182811288821</v>
       </c>
       <c r="C64">
-        <v>0.03325976982473686</v>
+        <v>-0.04625484470181596</v>
       </c>
       <c r="D64">
-        <v>-0.005774612734932918</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006390176390485646</v>
+      </c>
+      <c r="E64">
+        <v>0.009279396839546542</v>
+      </c>
+      <c r="F64">
+        <v>-0.005318227862178492</v>
+      </c>
+      <c r="G64">
+        <v>0.09517419268794294</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07304500730905615</v>
+        <v>0.07079935328288835</v>
       </c>
       <c r="C65">
-        <v>0.07971820356207077</v>
+        <v>-0.05197129401962017</v>
       </c>
       <c r="D65">
-        <v>-0.02204899927287552</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01922082991018876</v>
+      </c>
+      <c r="E65">
+        <v>0.0627189115434086</v>
+      </c>
+      <c r="F65">
+        <v>-0.01194799843344174</v>
+      </c>
+      <c r="G65">
+        <v>0.03935105480418668</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.04342396686076028</v>
+        <v>0.0481503697894204</v>
       </c>
       <c r="C66">
-        <v>0.1291322643401473</v>
+        <v>-0.1022228254715452</v>
       </c>
       <c r="D66">
-        <v>-0.02841773064522824</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.0142848632446855</v>
+      </c>
+      <c r="E66">
+        <v>0.0629691850659245</v>
+      </c>
+      <c r="F66">
+        <v>-0.02189784556397516</v>
+      </c>
+      <c r="G66">
+        <v>0.09726216872298844</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05744178326347191</v>
+        <v>0.05395039754795009</v>
       </c>
       <c r="C67">
-        <v>0.02615258611044228</v>
+        <v>-0.02914673810053283</v>
       </c>
       <c r="D67">
-        <v>0.008362934121981398</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.00538323529484987</v>
+      </c>
+      <c r="E67">
+        <v>0.007027519720155757</v>
+      </c>
+      <c r="F67">
+        <v>0.007836446568108526</v>
+      </c>
+      <c r="G67">
+        <v>0.07774458126064102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1486780736872761</v>
+        <v>0.1538546003358312</v>
       </c>
       <c r="C68">
-        <v>-0.2554800493494165</v>
+        <v>0.2715070695968475</v>
       </c>
       <c r="D68">
-        <v>0.05465782638430308</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005624577712544085</v>
+      </c>
+      <c r="E68">
+        <v>-0.003884010766361865</v>
+      </c>
+      <c r="F68">
+        <v>0.04382497206869206</v>
+      </c>
+      <c r="G68">
+        <v>0.02141705955145916</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0735724445655199</v>
+        <v>0.08386086208805914</v>
       </c>
       <c r="C69">
-        <v>0.06617975555232017</v>
+        <v>-0.07190001902006968</v>
       </c>
       <c r="D69">
-        <v>0.00385831325265776</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008214983529167689</v>
+      </c>
+      <c r="E69">
+        <v>-0.01182471766717216</v>
+      </c>
+      <c r="F69">
+        <v>0.01996025316267431</v>
+      </c>
+      <c r="G69">
+        <v>0.1021663809511297</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1487909956958616</v>
+        <v>0.1407663114958943</v>
       </c>
       <c r="C71">
-        <v>-0.202767519358897</v>
+        <v>0.2313599232059012</v>
       </c>
       <c r="D71">
-        <v>0.05604772635110432</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002380706587067067</v>
+      </c>
+      <c r="E71">
+        <v>0.02853226290391767</v>
+      </c>
+      <c r="F71">
+        <v>0.02977039743722424</v>
+      </c>
+      <c r="G71">
+        <v>0.06375252651934799</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.06227963146893944</v>
+        <v>0.08406921948708597</v>
       </c>
       <c r="C72">
-        <v>0.07214018839514762</v>
+        <v>-0.06426906593349203</v>
       </c>
       <c r="D72">
-        <v>0.00204373939801739</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.007163021883253052</v>
+      </c>
+      <c r="E72">
+        <v>0.002749267385229356</v>
+      </c>
+      <c r="F72">
+        <v>-0.01761302087841206</v>
+      </c>
+      <c r="G72">
+        <v>0.08813843935661494</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4201143183140676</v>
+        <v>0.3673242336948346</v>
       </c>
       <c r="C73">
-        <v>0.1684930264610802</v>
+        <v>-0.1019850040369025</v>
       </c>
       <c r="D73">
-        <v>0.002562370290191984</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.03055553396820048</v>
+      </c>
+      <c r="E73">
+        <v>0.2494646968088729</v>
+      </c>
+      <c r="F73">
+        <v>-0.5438682907066685</v>
+      </c>
+      <c r="G73">
+        <v>-0.3304949730006297</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1016290248592632</v>
+        <v>0.108982111540408</v>
       </c>
       <c r="C74">
-        <v>0.1292063246249366</v>
+        <v>-0.1046248956942969</v>
       </c>
       <c r="D74">
-        <v>-0.004929035586404385</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009357778821008009</v>
+      </c>
+      <c r="E74">
+        <v>-0.006886485670113147</v>
+      </c>
+      <c r="F74">
+        <v>0.05691092858021125</v>
+      </c>
+      <c r="G74">
+        <v>0.07595321923863703</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2346314358033954</v>
+        <v>0.2526670642935521</v>
       </c>
       <c r="C75">
-        <v>0.1656742176683274</v>
+        <v>-0.1465605774011456</v>
       </c>
       <c r="D75">
-        <v>0.01513549635765898</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03234135219063003</v>
+      </c>
+      <c r="E75">
+        <v>-0.09441346594378139</v>
+      </c>
+      <c r="F75">
+        <v>0.1298106962199342</v>
+      </c>
+      <c r="G75">
+        <v>0.01859279346595883</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1122449773173107</v>
+        <v>0.1221410718850741</v>
       </c>
       <c r="C76">
-        <v>0.1271758171903519</v>
+        <v>-0.1067859687843944</v>
       </c>
       <c r="D76">
-        <v>0.003305582202144337</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01839904596626264</v>
+      </c>
+      <c r="E76">
+        <v>-0.03846157737802936</v>
+      </c>
+      <c r="F76">
+        <v>0.08083452819024049</v>
+      </c>
+      <c r="G76">
+        <v>0.06937409723172902</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.05352575870804362</v>
+        <v>0.06935429046303591</v>
       </c>
       <c r="C77">
-        <v>0.06204889942772863</v>
+        <v>-0.04862920584383758</v>
       </c>
       <c r="D77">
-        <v>-0.01306908782697076</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01255231203461058</v>
+      </c>
+      <c r="E77">
+        <v>0.06984407942910556</v>
+      </c>
+      <c r="F77">
+        <v>0.005158213401931363</v>
+      </c>
+      <c r="G77">
+        <v>0.08848943469921948</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.0429494440880743</v>
+        <v>0.04123242803882071</v>
       </c>
       <c r="C78">
-        <v>0.05465158670427366</v>
+        <v>-0.05215065400003988</v>
       </c>
       <c r="D78">
-        <v>-0.008484437847891175</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.009487804473826853</v>
+      </c>
+      <c r="E78">
+        <v>0.05461934807188036</v>
+      </c>
+      <c r="F78">
+        <v>-0.02916393881511049</v>
+      </c>
+      <c r="G78">
+        <v>0.09682123361947841</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001166161929910357</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0007334096971208128</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.001035626951598013</v>
+      </c>
+      <c r="E79">
+        <v>0.008492909107030088</v>
+      </c>
+      <c r="F79">
+        <v>0.001098970789541181</v>
+      </c>
+      <c r="G79">
+        <v>0.009002995529454173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.05057761273035535</v>
+        <v>0.04115589409677218</v>
       </c>
       <c r="C80">
-        <v>0.06377626550967112</v>
+        <v>-0.04864165528059263</v>
       </c>
       <c r="D80">
-        <v>-0.01732791658351932</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01503758294707526</v>
+      </c>
+      <c r="E80">
+        <v>0.04139266186612151</v>
+      </c>
+      <c r="F80">
+        <v>0.001424499746421323</v>
+      </c>
+      <c r="G80">
+        <v>0.0513678859193687</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1272347671237159</v>
+        <v>0.1398533267997362</v>
       </c>
       <c r="C81">
-        <v>0.09775319203284544</v>
+        <v>-0.09046161908533423</v>
       </c>
       <c r="D81">
-        <v>0.005745516307594742</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01577858563734444</v>
+      </c>
+      <c r="E81">
+        <v>-0.05806577952585735</v>
+      </c>
+      <c r="F81">
+        <v>0.1022257482395488</v>
+      </c>
+      <c r="G81">
+        <v>0.03881828090420966</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.04263745973058124</v>
+        <v>0.1699994498500405</v>
       </c>
       <c r="C82">
-        <v>0.03966772224861225</v>
+        <v>-0.1156611268126656</v>
       </c>
       <c r="D82">
-        <v>-0.001889383634744729</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01825007561692998</v>
+      </c>
+      <c r="E82">
+        <v>-0.1717347262647014</v>
+      </c>
+      <c r="F82">
+        <v>0.05578572714255188</v>
+      </c>
+      <c r="G82">
+        <v>0.02564154861053875</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02196030017215512</v>
+        <v>0.03196540895641561</v>
       </c>
       <c r="C83">
-        <v>0.01984313493151694</v>
+        <v>-0.02882046151618755</v>
       </c>
       <c r="D83">
-        <v>-0.005749325910623336</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.007980205811351454</v>
+      </c>
+      <c r="E83">
+        <v>0.0427205556023297</v>
+      </c>
+      <c r="F83">
+        <v>-0.03118902858689923</v>
+      </c>
+      <c r="G83">
+        <v>0.05193954234719333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2373851645485271</v>
+        <v>0.2136204916935525</v>
       </c>
       <c r="C85">
-        <v>0.1715813468840784</v>
+        <v>-0.1372492830206878</v>
       </c>
       <c r="D85">
-        <v>0.004725284370547692</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01863122582961417</v>
+      </c>
+      <c r="E85">
+        <v>-0.1033167130844832</v>
+      </c>
+      <c r="F85">
+        <v>0.06040386400607277</v>
+      </c>
+      <c r="G85">
+        <v>-0.01936165754123061</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.00712088896540823</v>
+        <v>0.01097747099400689</v>
       </c>
       <c r="C86">
-        <v>0.024746788504907</v>
+        <v>-0.02595787328299892</v>
       </c>
       <c r="D86">
-        <v>-0.01051055358729092</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01473566024138597</v>
+      </c>
+      <c r="E86">
+        <v>0.07576006564178484</v>
+      </c>
+      <c r="F86">
+        <v>-0.02199811887693549</v>
+      </c>
+      <c r="G86">
+        <v>0.1709530449338043</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01117924441055048</v>
+        <v>0.02098598079873519</v>
       </c>
       <c r="C87">
-        <v>0.02432013654275767</v>
+        <v>-0.01476138278803295</v>
       </c>
       <c r="D87">
-        <v>-0.0117211203507092</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01452180624816956</v>
+      </c>
+      <c r="E87">
+        <v>0.1018632296365282</v>
+      </c>
+      <c r="F87">
+        <v>0.02551607521659084</v>
+      </c>
+      <c r="G87">
+        <v>0.108797573325229</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.08856050631375663</v>
+        <v>0.08978843056401278</v>
       </c>
       <c r="C88">
-        <v>0.06337611876227341</v>
+        <v>-0.06458640239458495</v>
       </c>
       <c r="D88">
-        <v>-0.02446721429695759</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02286362021967761</v>
+      </c>
+      <c r="E88">
+        <v>0.005875229301170017</v>
+      </c>
+      <c r="F88">
+        <v>0.01669086753383109</v>
+      </c>
+      <c r="G88">
+        <v>0.1038822385739169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.2486095295867909</v>
+        <v>0.2220761472616772</v>
       </c>
       <c r="C89">
-        <v>-0.3515478027280288</v>
+        <v>0.3734878487205469</v>
       </c>
       <c r="D89">
-        <v>0.08918451313570783</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0008202370202925053</v>
+      </c>
+      <c r="E89">
+        <v>-0.02431986151528502</v>
+      </c>
+      <c r="F89">
+        <v>0.01281800536266275</v>
+      </c>
+      <c r="G89">
+        <v>0.07876892536312713</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2196780688710662</v>
+        <v>0.2027240784350317</v>
       </c>
       <c r="C90">
-        <v>-0.3090345776525262</v>
+        <v>0.318637759337224</v>
       </c>
       <c r="D90">
-        <v>0.08308557219654485</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004302621967575562</v>
+      </c>
+      <c r="E90">
+        <v>-0.01076393525079877</v>
+      </c>
+      <c r="F90">
+        <v>0.04793374826934664</v>
+      </c>
+      <c r="G90">
+        <v>0.0492278518096378</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1834521143307199</v>
+        <v>0.1881164712763333</v>
       </c>
       <c r="C91">
-        <v>0.1297054337796532</v>
+        <v>-0.133331810253298</v>
       </c>
       <c r="D91">
-        <v>0.01329304324286815</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02345609052718721</v>
+      </c>
+      <c r="E91">
+        <v>-0.07875068673219762</v>
+      </c>
+      <c r="F91">
+        <v>0.101818338714464</v>
+      </c>
+      <c r="G91">
+        <v>0.04179932209387298</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2189670680292294</v>
+        <v>0.186665491027773</v>
       </c>
       <c r="C92">
-        <v>-0.2270430590521669</v>
+        <v>0.2731714715245124</v>
       </c>
       <c r="D92">
-        <v>0.1043412412960575</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03909151123641635</v>
+      </c>
+      <c r="E92">
+        <v>0.01826892555059158</v>
+      </c>
+      <c r="F92">
+        <v>0.0592138593682307</v>
+      </c>
+      <c r="G92">
+        <v>0.07358918645095593</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2363349390131584</v>
+        <v>0.2259621868353444</v>
       </c>
       <c r="C93">
-        <v>-0.2908292374065128</v>
+        <v>0.3154473452079546</v>
       </c>
       <c r="D93">
-        <v>0.08736794261635851</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01024278623127125</v>
+      </c>
+      <c r="E93">
+        <v>0.002701890466244588</v>
+      </c>
+      <c r="F93">
+        <v>0.03874958237329015</v>
+      </c>
+      <c r="G93">
+        <v>0.05738488108658257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2471296011751053</v>
+        <v>0.3363336882607421</v>
       </c>
       <c r="C94">
-        <v>0.1703294618346379</v>
+        <v>-0.1956120646970353</v>
       </c>
       <c r="D94">
-        <v>-0.005681663028909539</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.03068839055311056</v>
+      </c>
+      <c r="E94">
+        <v>-0.374741652000295</v>
+      </c>
+      <c r="F94">
+        <v>0.3965485914590366</v>
+      </c>
+      <c r="G94">
+        <v>-0.3689386756451055</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.06614304479610823</v>
+        <v>0.08464212945095126</v>
       </c>
       <c r="C95">
-        <v>0.1094073190843634</v>
+        <v>-0.0661967137007794</v>
       </c>
       <c r="D95">
-        <v>-0.006149912364100811</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.007205718025174557</v>
+      </c>
+      <c r="E95">
+        <v>0.1267432796278123</v>
+      </c>
+      <c r="F95">
+        <v>-0.1542145162258778</v>
+      </c>
+      <c r="G95">
+        <v>0.05600151725897048</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1999834046559852</v>
+        <v>0.191675029899873</v>
       </c>
       <c r="C98">
-        <v>0.07618133059223299</v>
+        <v>-0.05067817667303524</v>
       </c>
       <c r="D98">
-        <v>0.02556812148215142</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.009169594973157027</v>
+      </c>
+      <c r="E98">
+        <v>0.1222024997702383</v>
+      </c>
+      <c r="F98">
+        <v>-0.1936028575656496</v>
+      </c>
+      <c r="G98">
+        <v>-0.05579011616936243</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01017983811905114</v>
+        <v>0.007464260832068126</v>
       </c>
       <c r="C101">
-        <v>0.02268775076763711</v>
+        <v>-0.0214762179331208</v>
       </c>
       <c r="D101">
-        <v>-0.01032337216068562</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01037166361858582</v>
+      </c>
+      <c r="E101">
+        <v>0.01302849936477738</v>
+      </c>
+      <c r="F101">
+        <v>0.01259252224704015</v>
+      </c>
+      <c r="G101">
+        <v>0.1052421128950064</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1102395949629698</v>
+        <v>0.1225639122670968</v>
       </c>
       <c r="C102">
-        <v>0.08329400767601268</v>
+        <v>-0.09027347106988316</v>
       </c>
       <c r="D102">
-        <v>-0.007726968405236598</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0004785986312854312</v>
+      </c>
+      <c r="E102">
+        <v>-0.0477906057073539</v>
+      </c>
+      <c r="F102">
+        <v>0.0225616807800975</v>
+      </c>
+      <c r="G102">
+        <v>0.01973129427306355</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.121812857340601</v>
+        <v>0.02022432426263547</v>
       </c>
       <c r="C104">
-        <v>-0.206321109905041</v>
+        <v>0.02813831174305667</v>
       </c>
       <c r="D104">
-        <v>-0.961730790793022</v>
+        <v>-0.9858530643525865</v>
+      </c>
+      <c r="E104">
+        <v>-0.08899184249250032</v>
+      </c>
+      <c r="F104">
+        <v>0.02350414386243546</v>
+      </c>
+      <c r="G104">
+        <v>-0.03832439551760529</v>
       </c>
     </row>
   </sheetData>
